--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="711">
   <si>
     <t>Property</t>
   </si>
@@ -1146,6 +1146,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1204,6 +1207,39 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode</t>
+  </si>
+  <si>
+    <t>ResRateSNOMEDCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.code</t>
+  </si>
+  <si>
+    <t>271625008</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.text</t>
   </si>
   <si>
@@ -1372,7 +1408,7 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve()}
+    <t xml:space="preserve">type:type}
 </t>
   </si>
   <si>
@@ -2512,7 +2548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP104"/>
+  <dimension ref="A1:AP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2521,7 +2557,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.52734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.49609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7867,7 +7903,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7931,7 +7967,7 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -7976,13 +8012,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>362</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
@@ -8100,10 +8136,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8218,10 +8254,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8338,10 +8374,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8383,7 +8419,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>80</v>
@@ -8460,10 +8496,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8580,10 +8616,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8623,7 +8659,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>80</v>
@@ -8700,10 +8736,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8820,10 +8856,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8942,18 +8978,20 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>91</v>
@@ -8968,19 +9006,19 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -9029,13 +9067,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -9050,10 +9088,10 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -9064,10 +9102,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9075,35 +9113,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -9151,7 +9185,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9163,22 +9197,22 @@
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>391</v>
+        <v>109</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9186,14 +9220,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9209,19 +9243,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>394</v>
+        <v>112</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>113</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>397</v>
+        <v>115</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9259,19 +9293,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>119</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9283,7 +9317,7 @@
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -9292,13 +9326,13 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9306,18 +9340,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>91</v>
@@ -9332,26 +9366,26 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>80</v>
@@ -9393,7 +9427,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9408,19 +9442,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>408</v>
+        <v>301</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9428,24 +9462,24 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -9454,20 +9488,18 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>304</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>305</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9515,7 +9547,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>307</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9524,25 +9556,25 @@
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>418</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>420</v>
+        <v>308</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>421</v>
+        <v>309</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9550,10 +9582,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9561,7 +9593,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>91</v>
@@ -9576,24 +9608,24 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>312</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>80</v>
@@ -9635,7 +9667,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>316</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9656,13 +9688,13 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>427</v>
+        <v>317</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>428</v>
+        <v>318</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9670,10 +9702,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9684,7 +9716,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9696,17 +9728,17 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>434</v>
+        <v>323</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9743,23 +9775,25 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -9768,19 +9802,19 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>437</v>
+        <v>325</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9788,14 +9822,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9804,7 +9836,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9816,17 +9848,19 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>432</v>
+        <v>330</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>434</v>
+        <v>333</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9875,13 +9909,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>334</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9890,19 +9924,19 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>437</v>
+        <v>335</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>438</v>
+        <v>336</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9910,14 +9944,12 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9926,7 +9958,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9938,17 +9970,19 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>445</v>
+        <v>105</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9997,13 +10031,13 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
@@ -10012,19 +10046,19 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>437</v>
+        <v>344</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>438</v>
+        <v>345</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -10032,10 +10066,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10043,7 +10077,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>91</v>
@@ -10058,19 +10092,19 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -10107,17 +10141,19 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10126,40 +10162,38 @@
         <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10168,10 +10202,10 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -10180,20 +10214,18 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10241,16 +10273,16 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>103</v>
@@ -10259,31 +10291,31 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>455</v>
+        <v>356</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10299,19 +10331,23 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>413</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>106</v>
+        <v>414</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10359,7 +10395,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>108</v>
+        <v>411</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10371,22 +10407,22 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>109</v>
+        <v>420</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>80</v>
@@ -10394,44 +10430,46 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>465</v>
+        <v>422</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>111</v>
+        <v>423</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>112</v>
+        <v>424</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>113</v>
+        <v>425</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>114</v>
+        <v>426</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10467,46 +10505,46 @@
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>119</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>109</v>
+        <v>433</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10514,10 +10552,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10525,13 +10563,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10540,20 +10578,18 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>468</v>
+        <v>127</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10601,7 +10637,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10622,13 +10658,13 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10636,10 +10672,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10650,36 +10686,34 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>167</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10699,37 +10733,35 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -10738,19 +10770,19 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10758,24 +10790,26 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
@@ -10784,17 +10818,17 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>105</v>
+        <v>454</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10843,13 +10877,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -10858,19 +10892,19 @@
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10878,24 +10912,26 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
@@ -10904,24 +10940,24 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>80</v>
@@ -10963,34 +10999,34 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>503</v>
+        <v>450</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>80</v>
@@ -10998,10 +11034,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>504</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11009,7 +11045,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>91</v>
@@ -11024,26 +11060,26 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>167</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>80</v>
@@ -11073,19 +11109,17 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11094,7 +11128,7 @@
         <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
@@ -11103,29 +11137,31 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11143,22 +11179,22 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>263</v>
+        <v>459</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>515</v>
+        <v>473</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11183,13 +11219,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11207,7 +11243,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>512</v>
+        <v>458</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11216,7 +11252,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>519</v>
+        <v>465</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11225,38 +11261,38 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>190</v>
+        <v>467</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11268,20 +11304,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>523</v>
+        <v>106</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11305,13 +11337,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11329,49 +11361,49 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>521</v>
+        <v>108</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>531</v>
+        <v>109</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11390,20 +11422,18 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>534</v>
+        <v>112</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>535</v>
+        <v>113</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>536</v>
+        <v>114</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -11439,19 +11469,19 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>533</v>
+        <v>119</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11463,7 +11493,7 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11472,10 +11502,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>540</v>
+        <v>109</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11486,10 +11516,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11497,31 +11527,35 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>105</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>106</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11569,7 +11603,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>108</v>
+        <v>485</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11581,7 +11615,7 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11590,10 +11624,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>109</v>
+        <v>487</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11604,48 +11638,50 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>542</v>
+        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>113</v>
+        <v>490</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="R76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11665,43 +11701,43 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>119</v>
+        <v>496</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11710,10 +11746,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>109</v>
+        <v>498</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11724,10 +11760,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11735,13 +11771,13 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
@@ -11750,18 +11786,18 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>544</v>
+        <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11809,7 +11845,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11830,10 +11866,10 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>190</v>
+        <v>505</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11844,10 +11880,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11855,13 +11891,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
@@ -11870,22 +11906,24 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>551</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>80</v>
@@ -11927,7 +11965,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11936,7 +11974,7 @@
         <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
@@ -11948,10 +11986,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>190</v>
+        <v>505</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11962,10 +12000,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11979,7 +12017,7 @@
         <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
@@ -11988,22 +12026,26 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>557</v>
+        <v>167</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>80</v>
+        <v>521</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>80</v>
@@ -12045,10 +12087,10 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>91</v>
@@ -12066,10 +12108,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>190</v>
+        <v>505</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -12080,10 +12122,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12097,7 +12139,7 @@
         <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
@@ -12109,15 +12151,17 @@
         <v>263</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -12141,13 +12185,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12165,7 +12209,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12174,7 +12218,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -12183,38 +12227,38 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>569</v>
+        <v>190</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>80</v>
+        <v>534</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -12229,16 +12273,16 @@
         <v>263</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12263,13 +12307,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12287,13 +12331,13 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
@@ -12305,27 +12349,27 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>80</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12336,7 +12380,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12348,18 +12392,20 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -12407,13 +12453,13 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
@@ -12425,27 +12471,27 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12456,7 +12502,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12468,17 +12514,15 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>591</v>
+        <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>592</v>
+        <v>106</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12527,7 +12571,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>590</v>
+        <v>108</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12539,37 +12583,37 @@
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>597</v>
+        <v>109</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>598</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12588,20 +12632,18 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>600</v>
+        <v>112</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>601</v>
+        <v>113</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>602</v>
+        <v>114</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12637,19 +12679,19 @@
         <v>80</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>599</v>
+        <v>119</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12661,7 +12703,7 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>605</v>
+        <v>120</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -12670,10 +12712,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>606</v>
+        <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>607</v>
+        <v>109</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12684,10 +12726,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>608</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>608</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12698,7 +12740,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12707,18 +12749,20 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>556</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>106</v>
+        <v>557</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12767,7 +12811,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>108</v>
+        <v>560</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12779,7 +12823,7 @@
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12788,10 +12832,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>109</v>
+        <v>561</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12802,21 +12846,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12825,20 +12869,18 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>112</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>113</v>
+        <v>564</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12887,19 +12929,19 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>119</v>
+        <v>566</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12908,10 +12950,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>109</v>
+        <v>567</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12922,46 +12964,42 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -13009,19 +13047,19 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -13030,10 +13068,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>190</v>
+        <v>573</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -13044,10 +13082,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13070,15 +13108,17 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>616</v>
+        <v>263</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -13103,13 +13143,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -13127,7 +13167,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13136,7 +13176,7 @@
         <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>619</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>103</v>
@@ -13145,27 +13185,27 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>621</v>
+        <v>582</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>80</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13188,16 +13228,20 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>616</v>
+        <v>263</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13221,13 +13265,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13245,7 +13289,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13254,7 +13298,7 @@
         <v>91</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>619</v>
+        <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>103</v>
@@ -13266,10 +13310,10 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13280,10 +13324,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13306,20 +13350,18 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>263</v>
+        <v>594</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>630</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -13343,13 +13385,13 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>631</v>
+        <v>80</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>632</v>
+        <v>80</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -13367,7 +13409,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13385,27 +13427,27 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>634</v>
+        <v>599</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>80</v>
+        <v>601</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13416,7 +13458,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -13428,20 +13470,18 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>263</v>
+        <v>603</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13465,13 +13505,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>641</v>
+        <v>80</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13489,13 +13529,13 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
@@ -13507,27 +13547,27 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13538,7 +13578,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13550,17 +13590,19 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>646</v>
+        <v>616</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13609,19 +13651,19 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>617</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13630,10 +13672,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13644,10 +13686,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13673,10 +13715,10 @@
         <v>105</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>649</v>
+        <v>106</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>650</v>
+        <v>107</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13727,7 +13769,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>648</v>
+        <v>108</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13739,7 +13781,7 @@
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -13748,10 +13790,10 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>651</v>
+        <v>109</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13762,14 +13804,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13785,19 +13827,19 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>653</v>
+        <v>112</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>654</v>
+        <v>113</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>655</v>
+        <v>114</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>656</v>
+        <v>115</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13847,7 +13889,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>652</v>
+        <v>119</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13859,7 +13901,7 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
@@ -13868,10 +13910,10 @@
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>657</v>
+        <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>658</v>
+        <v>109</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13882,14 +13924,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>659</v>
+        <v>622</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>659</v>
+        <v>622</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13902,24 +13944,26 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>660</v>
+        <v>112</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>662</v>
+        <v>625</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13967,7 +14011,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13979,7 +14023,7 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
@@ -13988,10 +14032,10 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>657</v>
+        <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>664</v>
+        <v>190</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -14002,10 +14046,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14016,32 +14060,28 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -14089,19 +14129,19 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>80</v>
+        <v>631</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>669</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -14110,10 +14150,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14124,10 +14164,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>672</v>
+        <v>634</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>672</v>
+        <v>634</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14150,13 +14190,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>105</v>
+        <v>628</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>106</v>
+        <v>635</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>107</v>
+        <v>636</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14207,7 +14247,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>108</v>
+        <v>634</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14216,10 +14256,10 @@
         <v>91</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>80</v>
+        <v>631</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
@@ -14228,10 +14268,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>80</v>
+        <v>632</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>109</v>
+        <v>637</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14242,21 +14282,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -14268,18 +14308,20 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>113</v>
+        <v>639</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>114</v>
+        <v>640</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -14303,13 +14345,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>80</v>
+        <v>643</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -14327,31 +14369,31 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>119</v>
+        <v>638</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>80</v>
+        <v>645</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>80</v>
+        <v>646</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>109</v>
+        <v>543</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14362,14 +14404,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14382,25 +14424,25 @@
         <v>80</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>115</v>
+        <v>650</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>221</v>
+        <v>651</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14425,13 +14467,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>80</v>
+        <v>652</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>80</v>
+        <v>653</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -14449,7 +14491,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14461,19 +14503,19 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>80</v>
+        <v>645</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>80</v>
+        <v>646</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>190</v>
+        <v>543</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14484,10 +14526,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14495,34 +14537,32 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>263</v>
+        <v>655</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14547,13 +14587,13 @@
         <v>80</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -14571,10 +14611,10 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>91</v>
@@ -14589,16 +14629,16 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>680</v>
+        <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>357</v>
+        <v>659</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>80</v>
@@ -14606,10 +14646,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14623,29 +14663,25 @@
         <v>91</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>682</v>
+        <v>105</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14669,13 +14705,13 @@
         <v>80</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>686</v>
+        <v>80</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>687</v>
+        <v>80</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -14693,7 +14729,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14702,7 +14738,7 @@
         <v>91</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>103</v>
@@ -14711,27 +14747,27 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>689</v>
+        <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>455</v>
+        <v>632</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>456</v>
+        <v>663</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14742,32 +14778,30 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K102" t="s" s="2">
-        <v>263</v>
+        <v>665</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
       </c>
@@ -14791,13 +14825,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -14815,16 +14849,16 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>694</v>
+        <v>80</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>103</v>
@@ -14836,10 +14870,10 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>190</v>
+        <v>669</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>520</v>
+        <v>670</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14850,14 +14884,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14873,23 +14907,21 @@
         <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>263</v>
+        <v>672</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>523</v>
+        <v>673</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>524</v>
+        <v>674</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>80</v>
       </c>
@@ -14913,13 +14945,13 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -14937,7 +14969,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14955,27 +14987,27 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>530</v>
+        <v>669</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>531</v>
+        <v>676</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14989,28 +15021,28 @@
         <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>80</v>
+        <v>612</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -15059,7 +15091,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -15071,29 +15103,999 @@
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP104" t="s" s="2">
+      <c r="AK108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP112" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP104">
+  <autoFilter ref="A1:AP112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15103,7 +16105,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="710">
   <si>
     <t>Property</t>
   </si>
@@ -1144,9 +1144,6 @@
   </si>
   <si>
     <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>value:code}
@@ -7903,7 +7900,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7967,7 +7964,7 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -8012,13 +8009,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>362</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
@@ -8136,10 +8133,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8254,10 +8251,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8374,10 +8371,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8419,7 +8416,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>80</v>
@@ -8496,10 +8493,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8616,10 +8613,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8659,7 +8656,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>80</v>
@@ -8736,10 +8733,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8856,10 +8853,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8978,20 +8975,20 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>362</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>91</v>
@@ -9102,10 +9099,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9220,10 +9217,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9340,10 +9337,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9385,7 +9382,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>80</v>
@@ -9462,10 +9459,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9582,10 +9579,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9625,7 +9622,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>80</v>
@@ -9702,10 +9699,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9822,10 +9819,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9944,10 +9941,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10066,10 +10063,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10092,19 +10089,19 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -10153,7 +10150,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10168,19 +10165,19 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -10188,10 +10185,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10214,16 +10211,16 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10273,7 +10270,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10297,10 +10294,10 @@
         <v>356</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -10308,14 +10305,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10334,19 +10331,19 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10395,7 +10392,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10410,19 +10407,19 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>80</v>
@@ -10430,14 +10427,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10456,19 +10453,19 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10517,7 +10514,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10526,25 +10523,25 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AK66" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10552,10 +10549,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10581,13 +10578,13 @@
         <v>127</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10637,7 +10634,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10658,13 +10655,13 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10672,10 +10669,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10698,17 +10695,17 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10745,7 +10742,7 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
@@ -10755,7 +10752,7 @@
         <v>118</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10770,19 +10767,19 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10790,13 +10787,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>80</v>
@@ -10818,17 +10815,17 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10877,7 +10874,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10892,19 +10889,19 @@
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10912,13 +10909,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C70" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>80</v>
@@ -10940,17 +10937,17 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10999,7 +10996,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -11014,19 +11011,19 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>80</v>
@@ -11034,10 +11031,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11060,19 +11057,19 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -11109,17 +11106,17 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11128,7 +11125,7 @@
         <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
@@ -11137,30 +11134,30 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>80</v>
@@ -11182,19 +11179,19 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="O72" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11243,7 +11240,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11252,7 +11249,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11261,27 +11258,27 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11396,10 +11393,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11516,10 +11513,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11542,19 +11539,19 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11603,7 +11600,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11624,10 +11621,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11638,10 +11635,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11667,20 +11664,20 @@
         <v>167</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q76" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q76" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>80</v>
@@ -11704,28 +11701,28 @@
         <v>255</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Z76" t="s" s="2">
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11746,10 +11743,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11760,10 +11757,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11789,14 +11786,14 @@
         <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11845,7 +11842,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11866,10 +11863,10 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11880,10 +11877,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11909,63 +11906,63 @@
         <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11974,7 +11971,7 @@
         <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
@@ -11986,10 +11983,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -12000,10 +11997,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12029,65 +12026,65 @@
         <v>167</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -12108,10 +12105,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -12122,10 +12119,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12151,16 +12148,16 @@
         <v>263</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12188,11 +12185,11 @@
         <v>149</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
       </c>
@@ -12209,7 +12206,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12218,7 +12215,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -12233,7 +12230,7 @@
         <v>190</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12244,14 +12241,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12273,16 +12270,16 @@
         <v>263</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12310,11 +12307,11 @@
         <v>149</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12331,7 +12328,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12349,27 +12346,27 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>544</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12392,19 +12389,19 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12453,7 +12450,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12474,10 +12471,10 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12488,10 +12485,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12606,10 +12603,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12726,10 +12723,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12752,16 +12749,16 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12811,7 +12808,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12835,7 +12832,7 @@
         <v>190</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12846,10 +12843,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12872,13 +12869,13 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12929,7 +12926,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12953,7 +12950,7 @@
         <v>190</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12964,10 +12961,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12990,13 +12987,13 @@
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -13047,7 +13044,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>91</v>
@@ -13071,7 +13068,7 @@
         <v>190</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -13082,10 +13079,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13111,13 +13108,13 @@
         <v>263</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13146,11 +13143,11 @@
         <v>157</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
       </c>
@@ -13167,7 +13164,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13185,27 +13182,27 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP88" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>583</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13231,16 +13228,16 @@
         <v>263</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -13268,11 +13265,11 @@
         <v>157</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13289,7 +13286,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13310,10 +13307,10 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13324,10 +13321,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13350,16 +13347,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13409,7 +13406,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13427,27 +13424,27 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP90" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>601</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13470,16 +13467,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13529,7 +13526,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13547,27 +13544,27 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP91" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>610</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13590,19 +13587,19 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13651,7 +13648,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13663,19 +13660,19 @@
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AK92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13686,10 +13683,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13804,10 +13801,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13924,14 +13921,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13953,10 +13950,10 @@
         <v>112</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>115</v>
@@ -14011,7 +14008,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -14046,10 +14043,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14072,13 +14069,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14129,7 +14126,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14138,7 +14135,7 @@
         <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>103</v>
@@ -14150,10 +14147,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14164,10 +14161,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14190,13 +14187,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14247,7 +14244,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14256,7 +14253,7 @@
         <v>91</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>103</v>
@@ -14268,10 +14265,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14282,10 +14279,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14311,16 +14308,16 @@
         <v>263</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -14348,11 +14345,11 @@
         <v>171</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="Z98" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
       </c>
@@ -14369,7 +14366,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14387,13 +14384,13 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="AM98" t="s" s="2">
-        <v>646</v>
-      </c>
       <c r="AN98" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14404,10 +14401,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14433,16 +14430,16 @@
         <v>263</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14470,11 +14467,11 @@
         <v>157</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>653</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
       </c>
@@ -14491,7 +14488,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14509,13 +14506,13 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="AM99" t="s" s="2">
-        <v>646</v>
-      </c>
       <c r="AN99" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14526,10 +14523,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14552,17 +14549,17 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14611,7 +14608,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14635,7 +14632,7 @@
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14646,10 +14643,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14675,10 +14672,10 @@
         <v>105</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14729,7 +14726,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14750,10 +14747,10 @@
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14764,10 +14761,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14790,16 +14787,16 @@
         <v>92</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14849,7 +14846,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14870,10 +14867,10 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14884,10 +14881,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14910,16 +14907,16 @@
         <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14969,7 +14966,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14990,10 +14987,10 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -15004,10 +15001,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15030,19 +15027,19 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M104" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -15091,7 +15088,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -15103,19 +15100,19 @@
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AN104" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>80</v>
@@ -15126,10 +15123,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15244,10 +15241,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15364,14 +15361,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15393,10 +15390,10 @@
         <v>112</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>115</v>
@@ -15451,7 +15448,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15486,10 +15483,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15515,16 +15512,16 @@
         <v>263</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -15573,7 +15570,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>91</v>
@@ -15591,7 +15588,7 @@
         <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>356</v>
@@ -15608,10 +15605,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15634,19 +15631,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="N109" t="s" s="2">
-        <v>697</v>
-      </c>
       <c r="O109" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15674,11 +15671,11 @@
         <v>255</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="Z109" t="s" s="2">
-        <v>699</v>
-      </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
       </c>
@@ -15695,7 +15692,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15704,7 +15701,7 @@
         <v>91</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>103</v>
@@ -15713,27 +15710,27 @@
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM109" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN109" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15759,16 +15756,16 @@
         <v>263</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="N110" t="s" s="2">
-        <v>705</v>
-      </c>
       <c r="O110" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15796,11 +15793,11 @@
         <v>149</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
       </c>
@@ -15817,7 +15814,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -15826,7 +15823,7 @@
         <v>91</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>103</v>
@@ -15841,7 +15838,7 @@
         <v>190</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>80</v>
@@ -15852,14 +15849,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15881,16 +15878,16 @@
         <v>263</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>80</v>
@@ -15918,11 +15915,11 @@
         <v>149</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Z111" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="AA111" t="s" s="2">
         <v>80</v>
       </c>
@@ -15939,7 +15936,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -15957,27 +15954,27 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AM111" t="s" s="2">
+      <c r="AN111" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AN111" t="s" s="2">
+      <c r="AO111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP111" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>544</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16003,16 +16000,16 @@
         <v>80</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="M112" t="s" s="2">
-        <v>710</v>
-      </c>
       <c r="N112" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>80</v>
@@ -16061,7 +16058,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -16082,10 +16079,10 @@
         <v>80</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="693">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -701,6 +701,23 @@
 </t>
   </si>
   <si>
+    <t>Observation.extension:confoundingFactor</t>
+  </si>
+  <si>
+    <t>confoundingFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationConfoundingFactor}
+</t>
+  </si>
+  <si>
+    <t>Additional issues or factors that may impact for the measurement</t>
+  </si>
+  <si>
+    <t>Identification of any issues or incidental factors that may impact on interpretation of the observation.
+Comment: For example: level of anxiety, pain, feeding in infants, tracheostomy.</t>
+  </si>
+  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -791,7 +808,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1284,7 +1301,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension focusCode.</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1489,9 +1506,6 @@
     <t>The frequency of spontaneous breathing.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity.id</t>
   </si>
   <si>
@@ -1735,72 +1749,6 @@
     <t>subjectOf.observationEvent[code="annotation"].value</t>
   </si>
   <si>
-    <t>Observation.note.id</t>
-  </si>
-  <si>
-    <t>Observation.note.extension</t>
-  </si>
-  <si>
-    <t>Observation.note.author[x]</t>
-  </si>
-  <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
-string</t>
-  </si>
-  <si>
-    <t>Individual responsible for the annotation</t>
-  </si>
-  <si>
-    <t>The individual responsible for making the annotation.</t>
-  </si>
-  <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
-  </si>
-  <si>
-    <t>Annotation.author[x]</t>
-  </si>
-  <si>
-    <t>Act.participant[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>Observation.note.time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the annotation was made</t>
-  </si>
-  <si>
-    <t>Indicates when this particular annotation was made.</t>
-  </si>
-  <si>
-    <t>Annotation.time</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>Observation.note.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>The annotation  - text content (as markdown)</t>
-  </si>
-  <si>
-    <t>The text of the annotation in markdown format.</t>
-  </si>
-  <si>
-    <t>Annotation.text</t>
-  </si>
-  <si>
-    <t>Act.text</t>
-  </si>
-  <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
@@ -1811,7 +1759,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension bodySite.</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -2122,7 +2070,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -2191,7 +2139,7 @@
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2545,7 +2493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP112"/>
+  <dimension ref="A1:AP108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5362,43 +5310,41 @@
         <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5446,7 +5392,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5455,7 +5401,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>120</v>
@@ -5488,7 +5434,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5501,23 +5447,25 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5566,7 +5514,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5578,22 +5526,22 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -5601,14 +5549,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5627,17 +5575,17 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5686,7 +5634,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5701,19 +5649,19 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5721,14 +5669,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5747,18 +5695,18 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5806,7 +5754,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5821,16 +5769,16 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5841,46 +5789,44 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5904,11 +5850,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5926,13 +5874,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5941,19 +5889,19 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5961,10 +5909,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5975,31 +5923,31 @@
         <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -6024,35 +5972,35 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -6061,19 +6009,19 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -6081,14 +6029,12 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>80</v>
       </c>
@@ -6097,7 +6043,7 @@
         <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>92</v>
@@ -6109,19 +6055,19 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -6149,28 +6095,26 @@
         <v>171</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6194,10 +6138,10 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -6205,24 +6149,26 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -6231,16 +6177,20 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -6264,13 +6214,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -6288,19 +6238,19 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -6312,10 +6262,10 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -6323,21 +6273,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -6349,17 +6299,15 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6396,31 +6344,31 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6443,46 +6391,44 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6518,19 +6464,19 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6542,7 +6488,7 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6551,10 +6497,10 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6565,10 +6511,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6576,31 +6522,35 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6648,19 +6598,19 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -6669,10 +6619,10 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6683,21 +6633,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6709,17 +6659,15 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6756,31 +6704,31 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6803,52 +6751,50 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6878,31 +6824,31 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6911,10 +6857,10 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6925,10 +6871,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6936,13 +6882,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -6951,24 +6897,26 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>80</v>
@@ -7010,7 +6958,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -7031,10 +6979,10 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -7045,10 +6993,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7056,13 +7004,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
@@ -7071,24 +7019,24 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -7130,7 +7078,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -7151,10 +7099,10 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -7165,10 +7113,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7176,13 +7124,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
@@ -7191,24 +7139,24 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>80</v>
@@ -7250,7 +7198,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7271,10 +7219,10 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7285,10 +7233,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7311,19 +7259,17 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7372,7 +7318,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7393,10 +7339,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7407,10 +7353,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7433,19 +7379,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7494,7 +7440,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7515,10 +7461,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7529,24 +7475,24 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
@@ -7555,19 +7501,19 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7592,13 +7538,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7616,10 +7562,10 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>91</v>
@@ -7631,62 +7577,66 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7710,13 +7660,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7734,10 +7684,10 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>91</v>
@@ -7746,44 +7696,44 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7795,17 +7745,15 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7842,31 +7790,31 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7889,18 +7837,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7912,23 +7860,21 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7964,9 +7910,11 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7974,7 +7922,7 @@
         <v>118</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>119</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7986,7 +7934,7 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7995,10 +7943,10 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -8009,14 +7957,12 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
@@ -8025,7 +7971,7 @@
         <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -8040,16 +7986,16 @@
         <v>145</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -8086,19 +8032,17 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -8119,10 +8063,10 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -8133,18 +8077,20 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -8156,19 +8102,23 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -8216,19 +8166,19 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -8237,10 +8187,10 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8251,21 +8201,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8277,17 +8227,15 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8324,31 +8272,31 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -8371,21 +8319,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -8394,29 +8342,27 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>80</v>
@@ -8446,31 +8392,31 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8479,10 +8425,10 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8493,10 +8439,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8504,7 +8450,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>91</v>
@@ -8519,24 +8465,26 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>80</v>
@@ -8578,7 +8526,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8599,10 +8547,10 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8613,10 +8561,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8624,7 +8572,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>91</v>
@@ -8639,24 +8587,24 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>80</v>
@@ -8698,7 +8646,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8719,10 +8667,10 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8733,10 +8681,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8744,7 +8692,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>91</v>
@@ -8759,24 +8707,24 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>80</v>
@@ -8818,7 +8766,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8839,10 +8787,10 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8853,10 +8801,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8879,19 +8827,17 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8940,7 +8886,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8961,10 +8907,10 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8975,14 +8921,12 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -9003,19 +8947,19 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>145</v>
+        <v>334</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -9064,13 +9008,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -9085,10 +9029,10 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -9099,12 +9043,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
@@ -9122,19 +9068,23 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -9182,19 +9132,19 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -9203,10 +9153,10 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -9217,21 +9167,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -9243,17 +9193,15 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9290,31 +9238,31 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -9337,21 +9285,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -9360,29 +9308,27 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>80</v>
@@ -9412,31 +9358,31 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9445,10 +9391,10 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9459,10 +9405,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9470,7 +9416,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -9485,24 +9431,26 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>80</v>
@@ -9544,7 +9492,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9565,10 +9513,10 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9579,10 +9527,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9590,7 +9538,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>91</v>
@@ -9605,24 +9553,24 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>80</v>
@@ -9664,7 +9612,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9685,10 +9633,10 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9699,10 +9647,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9710,7 +9658,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>91</v>
@@ -9725,24 +9673,24 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>80</v>
@@ -9784,7 +9732,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9805,10 +9753,10 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9819,10 +9767,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9845,19 +9793,17 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9906,7 +9852,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9927,10 +9873,10 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9941,10 +9887,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9967,19 +9913,19 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -10028,7 +9974,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -10049,10 +9995,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -10063,10 +10009,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10074,13 +10020,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
@@ -10089,19 +10035,19 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>395</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -10150,7 +10096,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10165,19 +10111,19 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -10185,10 +10131,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10196,13 +10142,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -10211,18 +10157,20 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10270,13 +10218,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -10285,19 +10233,19 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -10305,21 +10253,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -10331,20 +10279,18 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10392,13 +10338,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -10407,19 +10353,19 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>80</v>
@@ -10427,24 +10373,24 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -10453,19 +10399,19 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10514,7 +10460,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10523,25 +10469,25 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>429</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10549,24 +10495,24 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10575,18 +10521,20 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>127</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10634,7 +10582,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10643,25 +10591,25 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10669,10 +10617,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10683,7 +10631,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10695,18 +10643,18 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10742,23 +10690,25 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -10767,19 +10717,19 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10787,14 +10737,12 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10815,17 +10763,17 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10862,19 +10810,17 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10889,19 +10835,19 @@
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10909,13 +10855,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>80</v>
@@ -10937,17 +10883,17 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10996,7 +10942,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -11011,19 +10957,19 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>80</v>
@@ -11031,12 +10977,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>80</v>
       </c>
@@ -11045,10 +10993,10 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -11057,19 +11005,17 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -11106,59 +11052,59 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11179,19 +11125,19 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11228,19 +11174,17 @@
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11249,7 +11193,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11258,29 +11202,31 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11292,25 +11238,29 @@
         <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>463</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>106</v>
+        <v>476</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11358,7 +11308,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>108</v>
+        <v>462</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11367,47 +11317,47 @@
         <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>109</v>
+        <v>472</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11419,17 +11369,15 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11466,31 +11414,31 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11513,46 +11461,44 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>479</v>
+        <v>112</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>113</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
+        <v>114</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11588,31 +11534,31 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>484</v>
+        <v>119</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11621,10 +11567,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>486</v>
+        <v>109</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11635,10 +11581,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11646,39 +11592,39 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>167</v>
+        <v>483</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q76" t="s" s="2">
-        <v>492</v>
-      </c>
+      <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11698,13 +11644,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -11722,7 +11668,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11743,10 +11689,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11757,10 +11703,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11768,37 +11714,39 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="R77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11818,13 +11766,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>498</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11842,7 +11790,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11863,10 +11811,10 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11877,10 +11825,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11903,24 +11851,24 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>80</v>
@@ -11962,7 +11910,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11971,7 +11919,7 @@
         <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
@@ -11983,10 +11931,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11997,10 +11945,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12023,26 +11971,24 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>80</v>
@@ -12084,7 +12030,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -12093,7 +12039,7 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -12105,10 +12051,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -12119,10 +12065,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12130,7 +12076,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>91</v>
@@ -12142,29 +12088,29 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>80</v>
@@ -12182,13 +12128,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12206,7 +12152,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12215,7 +12161,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -12227,10 +12173,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>190</v>
+        <v>508</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12241,24 +12187,24 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>533</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
@@ -12267,19 +12213,19 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12307,10 +12253,10 @@
         <v>149</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12328,16 +12274,16 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>80</v>
+        <v>534</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>103</v>
@@ -12346,31 +12292,31 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>541</v>
+        <v>190</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12389,19 +12335,19 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>545</v>
+        <v>268</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12426,13 +12372,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12450,7 +12396,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12468,27 +12414,27 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12499,7 +12445,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12511,16 +12457,20 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>105</v>
+        <v>549</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>106</v>
+        <v>550</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12568,19 +12518,19 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>108</v>
+        <v>548</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -12589,10 +12539,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>109</v>
+        <v>555</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12603,21 +12553,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -12629,16 +12579,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>113</v>
+        <v>557</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>114</v>
+        <v>558</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>115</v>
+        <v>559</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12664,69 +12614,69 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>119</v>
+        <v>556</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>109</v>
+        <v>564</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>80</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12737,7 +12687,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12746,21 +12696,23 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>555</v>
+        <v>268</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12784,13 +12736,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12808,7 +12760,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12829,10 +12781,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>190</v>
+        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12843,10 +12795,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12857,7 +12809,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12866,18 +12818,20 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12926,7 +12880,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12944,27 +12898,27 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>80</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12972,7 +12926,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>91</v>
@@ -12984,18 +12938,20 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -13044,10 +13000,10 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>91</v>
@@ -13062,27 +13018,27 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>190</v>
+        <v>590</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13093,7 +13049,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -13105,18 +13061,20 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>263</v>
+        <v>594</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
@@ -13140,13 +13098,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -13164,45 +13122,45 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>599</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>582</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13225,20 +13183,16 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>584</v>
+        <v>106</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13262,13 +13216,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>588</v>
+        <v>80</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13286,7 +13240,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>583</v>
+        <v>108</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13298,7 +13252,7 @@
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
@@ -13307,10 +13261,10 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>591</v>
+        <v>109</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13321,21 +13275,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -13347,16 +13301,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>593</v>
+        <v>112</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>594</v>
+        <v>113</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>595</v>
+        <v>114</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>596</v>
+        <v>115</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13406,79 +13360,81 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>592</v>
+        <v>119</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>598</v>
+        <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>599</v>
+        <v>109</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>602</v>
+        <v>112</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13526,45 +13482,45 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>606</v>
+        <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>607</v>
+        <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>608</v>
+        <v>190</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>609</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13575,7 +13531,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13587,20 +13543,16 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>615</v>
-      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13648,19 +13600,19 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>613</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>616</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13669,10 +13621,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13683,10 +13635,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13709,13 +13661,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>105</v>
+        <v>610</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>106</v>
+        <v>617</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>107</v>
+        <v>618</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13766,7 +13718,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>108</v>
+        <v>616</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13775,10 +13727,10 @@
         <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>613</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -13787,10 +13739,10 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>80</v>
+        <v>614</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>109</v>
+        <v>619</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13808,14 +13760,14 @@
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13827,18 +13779,20 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>113</v>
+        <v>621</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>114</v>
+        <v>622</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13862,13 +13816,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>625</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13886,31 +13840,31 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>119</v>
+        <v>620</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>80</v>
+        <v>628</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>109</v>
+        <v>546</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13921,14 +13875,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13941,25 +13895,25 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>115</v>
+        <v>632</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>221</v>
+        <v>633</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13984,13 +13938,13 @@
         <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>80</v>
+        <v>634</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>80</v>
+        <v>635</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
@@ -14008,7 +13962,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -14020,19 +13974,19 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>80</v>
+        <v>628</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>190</v>
+        <v>546</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -14043,10 +13997,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14069,16 +14023,18 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>640</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -14126,7 +14082,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14135,7 +14091,7 @@
         <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>103</v>
@@ -14147,10 +14103,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>631</v>
+        <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14161,10 +14117,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14187,13 +14143,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>627</v>
+        <v>105</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14244,7 +14200,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14253,7 +14209,7 @@
         <v>91</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>103</v>
@@ -14265,10 +14221,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14279,10 +14235,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14293,7 +14249,7 @@
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -14302,23 +14258,21 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>263</v>
+        <v>647</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>641</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -14342,13 +14296,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>642</v>
+        <v>80</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>643</v>
+        <v>80</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -14366,13 +14320,13 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
@@ -14384,13 +14338,13 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>644</v>
+        <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>542</v>
+        <v>652</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14401,10 +14355,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14424,23 +14378,21 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>263</v>
+        <v>654</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
       </c>
@@ -14464,13 +14416,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>651</v>
+        <v>80</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>652</v>
+        <v>80</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -14488,7 +14440,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14506,13 +14458,13 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>644</v>
+        <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>542</v>
+        <v>658</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14523,10 +14475,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14537,29 +14489,31 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>654</v>
+        <v>594</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>661</v>
+      </c>
       <c r="O100" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14608,19 +14562,19 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>663</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>80</v>
@@ -14629,10 +14583,10 @@
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>80</v>
+        <v>664</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14643,10 +14597,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14672,10 +14626,10 @@
         <v>105</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>660</v>
+        <v>106</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>661</v>
+        <v>107</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14726,7 +14680,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>659</v>
+        <v>108</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14738,7 +14692,7 @@
         <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>80</v>
@@ -14747,10 +14701,10 @@
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>631</v>
+        <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>662</v>
+        <v>109</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14761,14 +14715,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14784,19 +14738,19 @@
         <v>80</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>664</v>
+        <v>112</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>665</v>
+        <v>113</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>666</v>
+        <v>114</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>667</v>
+        <v>115</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14846,7 +14800,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>663</v>
+        <v>119</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14858,7 +14812,7 @@
         <v>80</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>80</v>
@@ -14867,10 +14821,10 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>668</v>
+        <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>669</v>
+        <v>109</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14881,14 +14835,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14901,24 +14855,26 @@
         <v>80</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>671</v>
+        <v>112</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>672</v>
+        <v>606</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>673</v>
+        <v>607</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
       </c>
@@ -14966,7 +14922,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14978,7 +14934,7 @@
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
@@ -14987,10 +14943,10 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>668</v>
+        <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>675</v>
+        <v>190</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -15001,10 +14957,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15012,10 +14968,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>92</v>
@@ -15027,19 +14983,19 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>611</v>
+        <v>268</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -15064,13 +15020,13 @@
         <v>80</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
@@ -15088,34 +15044,34 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>680</v>
+        <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>80</v>
+        <v>674</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>681</v>
+        <v>361</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>682</v>
+        <v>362</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>80</v>
@@ -15123,10 +15079,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15140,25 +15096,29 @@
         <v>91</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>105</v>
+        <v>676</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>106</v>
+        <v>677</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>678</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
       </c>
@@ -15182,13 +15142,13 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>80</v>
+        <v>680</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
@@ -15206,7 +15166,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>108</v>
+        <v>675</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15215,28 +15175,28 @@
         <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>80</v>
+        <v>682</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>80</v>
+        <v>683</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>109</v>
+        <v>472</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" hidden="true">
@@ -15248,17 +15208,17 @@
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>80</v>
@@ -15267,18 +15227,20 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>113</v>
+        <v>685</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>114</v>
+        <v>686</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>687</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -15302,13 +15264,13 @@
         <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -15326,19 +15288,19 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>119</v>
+        <v>684</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>80</v>
@@ -15347,10 +15309,10 @@
         <v>80</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>109</v>
+        <v>535</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>80</v>
@@ -15361,14 +15323,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>622</v>
+        <v>537</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15381,25 +15343,25 @@
         <v>80</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>623</v>
+        <v>538</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>624</v>
+        <v>539</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>115</v>
+        <v>540</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>221</v>
+        <v>541</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15424,13 +15386,13 @@
         <v>80</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
@@ -15448,7 +15410,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15460,33 +15422,33 @@
         <v>80</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>190</v>
+        <v>546</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15494,34 +15456,34 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>689</v>
+        <v>597</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>690</v>
+        <v>598</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -15546,13 +15508,13 @@
         <v>80</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>80</v>
@@ -15570,13 +15532,13 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>80</v>
@@ -15588,511 +15550,23 @@
         <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>691</v>
+        <v>80</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>356</v>
+        <v>600</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>357</v>
+        <v>601</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP112" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP112">
+  <autoFilter ref="A1:AP108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16102,7 +15576,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -457,7 +457,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -15142,7 +15142,7 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="Y105" t="s" s="2">
         <v>680</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -97,7 +97,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Some content in this profile builds on the blood pressure archetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
+    <t>Some content in this profile builds on the respiration rate archetype: Åndedrett, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-04]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2280</t>
   </si>
   <si>
     <t>FHIR Version</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -14424,7 +14424,7 @@
         <v>84</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>658</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -14424,7 +14424,7 @@
         <v>84</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>658</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -14424,7 +14424,7 @@
         <v>84</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>658</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,14 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Respiration Rate information.  
+    <t>Domain profile for Norwegian Vital Signs Observation Respiration Rate information.  
 To be used for recording the observed and measured characteristics of spontaneous breathing by an individual, including respiratory rate, depth and rhythm.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>Basisprofile for Norwegian  VitalSigns Observation Respiration Rate information. Defined by The Norwegian Directorate of eHealth and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Respiration Rate .</t>
+    <t>Domain profile for Norwegian  VitalSigns Observation Respiration Rate information. Defined by The Norwegian Directorate of health and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Respiration Rate. Please visit https://arketyper.no/ckm/ for further information about the concepts defined in extensions.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2413,17 +2413,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.6875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2432,28 +2432,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.83984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.5859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
